--- a/tests/data/codes/test-002.xlsx
+++ b/tests/data/codes/test-002.xlsx
@@ -38,7 +38,7 @@
     <t>C100</t>
   </si>
   <si>
-    <t>name</t>
+    <t>Name</t>
   </si>
 </sst>
 </file>
@@ -983,7 +983,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7972972972973" defaultRowHeight="17.05" outlineLevelRow="3" outlineLevelCol="2"/>
@@ -1035,7 +1035,7 @@
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7972972972973" defaultRowHeight="17.05" outlineLevelRow="7"/>
